--- a/Measure_Mapping.xlsx
+++ b/Measure_Mapping.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sona\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8256" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Petrol" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Condensat" sheetId="2" r:id="rId4"/>
+    <sheet name="Petrol" sheetId="1" r:id="rId1"/>
+    <sheet name="Condensat" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="157">
   <si>
     <t>Input</t>
   </si>
@@ -396,27 +404,121 @@
   </si>
   <si>
     <t>#Petr_C_Part des Associés</t>
+  </si>
+  <si>
+    <t>Full_Name_EN</t>
+  </si>
+  <si>
+    <t>#Cond_P_Initial stock stabilised condensate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Cond_P_Production stock stabilised condensate </t>
+  </si>
+  <si>
+    <t>#Cond_P_Condensate from refineries</t>
+  </si>
+  <si>
+    <t>#Cond_P_Production condensate shipments</t>
+  </si>
+  <si>
+    <t>#Cond_P_Condensate delivered to TRC crude oil</t>
+  </si>
+  <si>
+    <t>#Cond_P_Filling pipe</t>
+  </si>
+  <si>
+    <t>#Cond_P_Stabilised condensate delivered to TRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Cond_P_Final stock stabilised condensate </t>
+  </si>
+  <si>
+    <t>#Cond_T_Initial stock stabilised condensate</t>
+  </si>
+  <si>
+    <t>#Cond_T_Pipeline quantity immobilised (start of period)</t>
+  </si>
+  <si>
+    <t>#Cond_T_Reception stabilised condensate TRC</t>
+  </si>
+  <si>
+    <t>#Cond_T_Purged water</t>
+  </si>
+  <si>
+    <t>#Cond_T_Losses</t>
+  </si>
+  <si>
+    <t>#Cond_T_Internal market deliveries</t>
+  </si>
+  <si>
+    <t>#Cond_T_External market deliveries</t>
+  </si>
+  <si>
+    <t>#Cond_T_Condensate re-injected</t>
+  </si>
+  <si>
+    <t>#Cond_T_Recovered</t>
+  </si>
+  <si>
+    <t>#Cond_T_Contaminated and returned condensate</t>
+  </si>
+  <si>
+    <t>#Cond_T_Pipeline quantity immobilised (end of period)</t>
+  </si>
+  <si>
+    <t>#Cond_T_Final stock stabilised condensate (actual)</t>
+  </si>
+  <si>
+    <t>#Cond_T_Final stock stabilised condensate (estimated)</t>
+  </si>
+  <si>
+    <t>#Cond_T_Final stock deviation</t>
+  </si>
+  <si>
+    <t>#Cond_C_External market stabilised condensate deliveries</t>
+  </si>
+  <si>
+    <t>#Cond_C_Associates</t>
+  </si>
+  <si>
+    <t>#Cond_C_Quantity naphtha light valued condensate</t>
+  </si>
+  <si>
+    <t>#Cond_C_Condensate sales unites (Domestic)</t>
+  </si>
+  <si>
+    <t>#Cond_C_Condensate sales unites (External)</t>
+  </si>
+  <si>
+    <t>#Cond_C_Condensate sales unites (National)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
-      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -425,7 +527,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -434,69 +536,317 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="49.71"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -507,7 +857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>62</v>
       </c>
@@ -520,7 +870,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -531,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -542,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -553,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -564,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -575,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -586,7 +936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -597,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
@@ -608,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -619,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -630,7 +980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
@@ -641,7 +991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -652,7 +1002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>88</v>
       </c>
@@ -663,7 +1013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>90</v>
       </c>
@@ -674,7 +1024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -685,7 +1035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -696,7 +1046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>96</v>
       </c>
@@ -707,7 +1057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>98</v>
       </c>
@@ -718,7 +1068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
@@ -729,7 +1079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
@@ -740,7 +1090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>104</v>
       </c>
@@ -751,7 +1101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>106</v>
       </c>
@@ -762,7 +1112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>108</v>
       </c>
@@ -773,7 +1123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>110</v>
       </c>
@@ -784,7 +1134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>112</v>
       </c>
@@ -795,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>114</v>
       </c>
@@ -806,7 +1156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>116</v>
       </c>
@@ -817,7 +1167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>118</v>
       </c>
@@ -828,7 +1178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>120</v>
       </c>
@@ -839,7 +1189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>122</v>
       </c>
@@ -850,7 +1200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>124</v>
       </c>
@@ -861,7 +1211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>126</v>
       </c>
@@ -873,24 +1223,28 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="56.86"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,10 +1254,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -913,10 +1270,13 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -926,8 +1286,11 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -937,8 +1300,11 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -948,8 +1314,11 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -959,8 +1328,11 @@
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -970,8 +1342,11 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -981,8 +1356,11 @@
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -992,8 +1370,11 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1003,8 +1384,11 @@
       <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1014,8 +1398,11 @@
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1025,8 +1412,11 @@
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1036,8 +1426,11 @@
       <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1047,8 +1440,11 @@
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1058,8 +1454,11 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1069,8 +1468,11 @@
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1080,8 +1482,11 @@
       <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1091,8 +1496,11 @@
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1102,8 +1510,11 @@
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
@@ -1113,8 +1524,11 @@
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1124,8 +1538,11 @@
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -1135,8 +1552,11 @@
       <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -1146,8 +1566,11 @@
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -1157,8 +1580,11 @@
       <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
@@ -1168,8 +1594,11 @@
       <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
@@ -1179,8 +1608,11 @@
       <c r="C26" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
@@ -1190,8 +1622,11 @@
       <c r="C27" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="D27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -1201,8 +1636,11 @@
       <c r="C28" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
@@ -1212,8 +1650,12 @@
       <c r="C29" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Measure_Mapping.xlsx
+++ b/Measure_Mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="188">
   <si>
     <t>Input</t>
   </si>
@@ -478,19 +478,112 @@
     <t>#Cond_C_External market stabilised condensate deliveries</t>
   </si>
   <si>
-    <t>#Cond_C_Associates</t>
-  </si>
-  <si>
     <t>#Cond_C_Quantity naphtha light valued condensate</t>
   </si>
   <si>
-    <t>#Cond_C_Condensate sales unites (Domestic)</t>
-  </si>
-  <si>
-    <t>#Cond_C_Condensate sales unites (External)</t>
-  </si>
-  <si>
-    <t>#Cond_C_Condensate sales unites (National)</t>
+    <t>#Cond_C_Condensate sales inter units (Domestic)</t>
+  </si>
+  <si>
+    <t>#Cond_C_Condensate sales inter units (External)</t>
+  </si>
+  <si>
+    <t>#Cond_C_Condensate sales inter units (National)</t>
+  </si>
+  <si>
+    <t>#Cond_C_Associates shares</t>
+  </si>
+  <si>
+    <t>#Petr_P_Initial stock</t>
+  </si>
+  <si>
+    <t>#Petr_P_Contribution from other sources</t>
+  </si>
+  <si>
+    <t>#Petr_P_Deliveries from RHM1 &amp; RHM2 refineries</t>
+  </si>
+  <si>
+    <t>#Petr_P_Deliveries</t>
+  </si>
+  <si>
+    <t>#Petr_P_Shipping to TRC (Storage)</t>
+  </si>
+  <si>
+    <t>#Petr_P_Sampling Fields</t>
+  </si>
+  <si>
+    <t>#Petr_P_Quantity lost/burned</t>
+  </si>
+  <si>
+    <t>#Petr_P_Samples from other sources</t>
+  </si>
+  <si>
+    <t>#Petr_T_Final stock</t>
+  </si>
+  <si>
+    <t>#Petr_T_Pipeline quantity immobilised (start of period)</t>
+  </si>
+  <si>
+    <t>#Petr_T_Reception crude oil &amp; condensate recovered</t>
+  </si>
+  <si>
+    <t>#Petr_T_Recovered</t>
+  </si>
+  <si>
+    <t>#Petr_T_Condensate injected into crude</t>
+  </si>
+  <si>
+    <t>#Petr_T_Internal market deliveries</t>
+  </si>
+  <si>
+    <t>#Petr_T_External market deliveries</t>
+  </si>
+  <si>
+    <t>#Petr_T_Quantity lost/burned</t>
+  </si>
+  <si>
+    <t>#Petr_T_Water purged</t>
+  </si>
+  <si>
+    <t>#Petr_T_Consumption TRC</t>
+  </si>
+  <si>
+    <t>#Petr_T_Filling line loading (OK1)</t>
+  </si>
+  <si>
+    <t>#Petr_T_Gross on OB1</t>
+  </si>
+  <si>
+    <t>#Petr_T_Lost stock OB1</t>
+  </si>
+  <si>
+    <t>#Petr_T_Pipeline quantity immobilised (end of period)</t>
+  </si>
+  <si>
+    <t>#Petr_T_Final stock stabilised condensate (actual)</t>
+  </si>
+  <si>
+    <t>#Petr_T_Final stock stabilised condensate (estimated)</t>
+  </si>
+  <si>
+    <t>#Petr_T_Difference between final stocks</t>
+  </si>
+  <si>
+    <t>#Petr_C_Sales inter units (Domestic)</t>
+  </si>
+  <si>
+    <t>#Petr_C_Sales inter units (External)</t>
+  </si>
+  <si>
+    <t>#Petr_C_Sales inter units (National)</t>
+  </si>
+  <si>
+    <t>#Petr_C_Sales (External market)</t>
+  </si>
+  <si>
+    <t>#Petr_C_Transactional agreement with partners</t>
+  </si>
+  <si>
+    <t>#Petr_C_Associates shares</t>
   </si>
 </sst>
 </file>
@@ -838,7 +931,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -856,6 +949,9 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -867,7 +963,9 @@
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,6 +978,9 @@
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -891,6 +992,9 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -902,6 +1006,9 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -913,6 +1020,9 @@
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -924,6 +1034,9 @@
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -935,6 +1048,9 @@
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -946,6 +1062,9 @@
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -957,6 +1076,9 @@
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -968,6 +1090,9 @@
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -979,6 +1104,9 @@
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -990,6 +1118,9 @@
       <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1001,6 +1132,9 @@
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1012,6 +1146,9 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1023,8 +1160,11 @@
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -1034,8 +1174,11 @@
       <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -1045,8 +1188,11 @@
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>96</v>
       </c>
@@ -1056,8 +1202,11 @@
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>98</v>
       </c>
@@ -1067,8 +1216,11 @@
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
@@ -1078,8 +1230,11 @@
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
@@ -1089,8 +1244,11 @@
       <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>104</v>
       </c>
@@ -1100,8 +1258,11 @@
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>106</v>
       </c>
@@ -1111,8 +1272,11 @@
       <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>108</v>
       </c>
@@ -1122,8 +1286,11 @@
       <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>110</v>
       </c>
@@ -1133,8 +1300,11 @@
       <c r="C26" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>112</v>
       </c>
@@ -1144,8 +1314,11 @@
       <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>114</v>
       </c>
@@ -1155,8 +1328,11 @@
       <c r="C28" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>116</v>
       </c>
@@ -1166,8 +1342,11 @@
       <c r="C29" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>118</v>
       </c>
@@ -1177,8 +1356,11 @@
       <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>120</v>
       </c>
@@ -1188,8 +1370,11 @@
       <c r="C31" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>122</v>
       </c>
@@ -1199,8 +1384,11 @@
       <c r="C32" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>124</v>
       </c>
@@ -1210,8 +1398,11 @@
       <c r="C33" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>126</v>
       </c>
@@ -1220,6 +1411,9 @@
       </c>
       <c r="C34" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1430,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1789,7 @@
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1609,7 +1803,7 @@
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1623,7 +1817,7 @@
         <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1637,7 +1831,7 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1651,7 +1845,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
